--- a/dougumi/excel/bgm_book.xlsx
+++ b/dougumi/excel/bgm_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/muccorz.github.io/dougumi/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD96F74-8021-C44C-9939-7A83490D71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17C8DD-8F56-C749-8F08-BC4E3C1670EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="460" windowWidth="28620" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="460" windowWidth="28620" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - bgm_book" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="263">
   <si>
     <t>よこしまな初恋</t>
   </si>
@@ -807,13 +807,26 @@
   <si>
     <t>太郎同学扭曲的爱 ~只是因为太爱妳了~</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骸骨と恋はできるのか？</t>
+  </si>
+  <si>
+    <t>要和骷髅谈恋爱吗？</t>
+  </si>
+  <si>
+    <t>2022-4-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq聊天记录里看完了 我以为是个沙雕搞笑少女漫 结果 宋娜！一带哟！一带哟！把心灵可爱富可敌囯魔法天赋拉满的贤惠美少女还回来啊！这是什么啊！萤火之森死灵版啊！女主得到唯一一次亲亲之后就死了啊！虽然一直是死的但是她变成光死了啊！呀咩咯啊！我这么久没看漫画了开开心心看了个刀子是什么啊！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -842,6 +855,19 @@
       <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -933,7 +959,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -960,6 +986,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2121,10 +2153,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A13:JA86"/>
+  <dimension ref="A12:JA86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J8" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2143,6 +2175,41 @@
     <col min="12" max="261" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="2">
+        <v>377561</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>243</v>
